--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-dosage-linecomment.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-dosage-linecomment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-07-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-dosage-linecomment.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-dosage-linecomment.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-dosage-linecomment.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-dosage-linecomment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="105">
   <si>
     <t>Property</t>
   </si>
@@ -577,9 +577,7 @@
       <c r="A13" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>22</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-dosage-linecomment.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-dosage-linecomment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="107">
   <si>
     <t>Property</t>
   </si>
@@ -332,6 +332,12 @@
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Examples/ValueSet/JP_MedicationAdministrationDosageLineComment_VS</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -683,7 +689,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="85.375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1267,13 +1273,11 @@
         <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X6" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="X6" s="2"/>
       <c r="Y6" t="s" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>75</v>
@@ -1303,7 +1307,7 @@
         <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>99</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-dosage-linecomment.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-dosage-linecomment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="115">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-31</t>
+    <t>2022-03-16</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>ラインコメント</t>
+  </si>
+  <si>
+    <t>ラインコメントを格納するための拡張</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -334,14 +340,34 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Examples/ValueSet/JP_MedicationAdministrationDosageLineComment_VS</t>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Examples/ValueSet/JP_MedicationAdministrationDosageLineComment_VS</t>
+  </si>
+  <si>
+    <t>valueString</t>
+  </si>
+  <si>
+    <t>テキスト記載</t>
   </si>
 </sst>
 </file>
@@ -656,7 +682,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AJ8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -666,7 +692,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -675,7 +701,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="63.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="37.17578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -841,10 +867,10 @@
         <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -904,10 +930,10 @@
         <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>75</v>
@@ -915,7 +941,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -926,7 +952,7 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>75</v>
@@ -938,13 +964,13 @@
         <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -995,13 +1021,13 @@
         <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>75</v>
@@ -1010,12 +1036,12 @@
         <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1038,13 +1064,13 @@
         <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1083,19 +1109,19 @@
         <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>76</v>
@@ -1107,7 +1133,7 @@
         <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>75</v>
@@ -1115,7 +1141,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1123,10 +1149,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>75</v>
@@ -1138,16 +1164,16 @@
         <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1197,13 +1223,13 @@
         <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>75</v>
@@ -1212,12 +1238,12 @@
         <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1228,7 +1254,7 @@
         <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>75</v>
@@ -1240,13 +1266,13 @@
         <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1273,44 +1299,246 @@
         <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="X6" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Y6" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="AB6" s="2"/>
       <c r="AC6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="X7" s="2"/>
+      <c r="Y7" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
